--- a/meta/program/BlancoRestGeneratorTsResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorTsResourceBundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A57907-34A6-134D-BA3C-09DE0F8EE89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DA0FA8-252F-C945-A384-4E5D25D853B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="1120" windowWidth="25520" windowHeight="12280" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="153">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -740,6 +740,104 @@
   </si>
   <si>
     <t>blancoRestGeneratorTsのデフォルト例外です.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegram-import</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegram-implements</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegram-header</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>META2XML.TELEGRAM_IMPLEMENTS</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>META2XML.TELEGRAM_IMPORT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>META2XML.TELEGRAM_HEADER</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>META2XML.PROCESS_IMPLEMENTS</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>META2XML.PROCESS_IMPORT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>META2XML.PROCESS_HEADER</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>META2XML.PROCESS_LIST</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegramprocess-implements</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegramprocess-import</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegramprocess-header</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegramprocess-list</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.ERR007</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.ERR008</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] フィールド[{1}]の「最大値」が数値ではありません。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t xml:space="preserve">サイダイチ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">スウチ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] フィールド[{1}]の「最小値」が数値ではありません。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">サイショウ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] フィールド[{1}]の「デフォルト値」がセットされていません。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.ERR009</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -817,7 +915,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1071,21 +1169,6 @@
       </top>
       <bottom style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,9 +1190,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
@@ -1118,52 +1199,30 @@
     <border>
       <left/>
       <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
       </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
+      <bottom style="hair">
+        <color indexed="8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1211,26 +1270,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,10 +1705,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1774,13 +1830,13 @@
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="18"/>
@@ -1791,9 +1847,9 @@
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -1832,7 +1888,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="22">
-        <f t="shared" ref="A17:A26" si="0">A16+1</f>
+        <f t="shared" ref="A17:A81" si="0">A16+1</f>
         <v>3</v>
       </c>
       <c r="B17" s="23"/>
@@ -1988,7 +2044,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="22">
-        <f t="shared" ref="A27:A93" si="1">A26+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B27" s="23" t="s">
@@ -2006,7 +2062,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -2024,7 +2080,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B29" s="23" t="s">
@@ -2042,7 +2098,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B30" s="23" t="s">
@@ -2060,14 +2116,14 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -2078,14 +2134,14 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -2096,14 +2152,14 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -2114,14 +2170,14 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -2130,265 +2186,275 @@
       <c r="H34" s="26"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" s="40" customFormat="1">
-      <c r="A35" s="35">
-        <f t="shared" si="1"/>
+    <row r="35" spans="1:9">
+      <c r="A35" s="22">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="22">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="22">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="22">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="22">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="22">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:9" s="36" customFormat="1">
+      <c r="A42" s="22">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B42" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C42" s="40" t="s">
         <v>113</v>
-      </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
-    </row>
-    <row r="36" spans="1:9" s="40" customFormat="1">
-      <c r="A36" s="35">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39"/>
-    </row>
-    <row r="37" spans="1:9" s="40" customFormat="1">
-      <c r="A37" s="35">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
-    </row>
-    <row r="38" spans="1:9" s="40" customFormat="1">
-      <c r="A38" s="35">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
-    </row>
-    <row r="39" spans="1:9" s="40" customFormat="1">
-      <c r="A39" s="35">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
-    </row>
-    <row r="40" spans="1:9" s="40" customFormat="1">
-      <c r="A40" s="35">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
-    </row>
-    <row r="41" spans="1:9" s="40" customFormat="1">
-      <c r="A41" s="35">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39"/>
-    </row>
-    <row r="42" spans="1:9" s="40" customFormat="1">
-      <c r="A42" s="35">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>127</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
-      <c r="G42" s="42"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="35">
-        <f t="shared" si="1"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="26"/>
+    </row>
+    <row r="43" spans="1:9" s="36" customFormat="1">
+      <c r="A43" s="22">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
+      <c r="B43" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="26"/>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="35">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="44" spans="1:9" s="36" customFormat="1">
+      <c r="A44" s="22">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
+      <c r="B44" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
       <c r="H44" s="26"/>
-      <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="35">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="45" spans="1:9" s="36" customFormat="1">
+      <c r="A45" s="22">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B45" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
+      <c r="B45" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="26"/>
-      <c r="I45" s="17"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="35">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="46" spans="1:9" s="36" customFormat="1">
+      <c r="A46" s="22">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
+      <c r="B46" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="26"/>
-      <c r="I46" s="17"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="35">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="47" spans="1:9" s="36" customFormat="1">
+      <c r="A47" s="22">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="B47" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
       <c r="H47" s="26"/>
-      <c r="I47" s="17"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="35">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="48" spans="1:9" s="36" customFormat="1">
+      <c r="A48" s="22">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
+      <c r="B48" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="26"/>
-      <c r="I48" s="17"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="35">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="49" spans="1:9" s="36" customFormat="1">
+      <c r="A49" s="22">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
+      <c r="B49" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="39"/>
       <c r="H49" s="26"/>
-      <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="35">
-        <f t="shared" si="1"/>
+      <c r="A50" s="22">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
@@ -2397,12 +2463,14 @@
       <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="35">
-        <f t="shared" si="1"/>
+      <c r="A51" s="22">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
+      <c r="C51" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
@@ -2411,15 +2479,15 @@
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="35">
-        <f t="shared" si="1"/>
+      <c r="A52" s="22">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
@@ -2429,15 +2497,15 @@
       <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="35">
-        <f t="shared" si="1"/>
+      <c r="A53" s="22">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -2447,15 +2515,15 @@
       <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="35">
-        <f t="shared" si="1"/>
+      <c r="A54" s="22">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -2465,12 +2533,16 @@
       <c r="I54" s="17"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="35">
-        <f t="shared" si="1"/>
+      <c r="A55" s="22">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
+      <c r="B55" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
@@ -2479,15 +2551,15 @@
       <c r="I55" s="17"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="35">
-        <f t="shared" si="1"/>
+      <c r="A56" s="22">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
@@ -2497,15 +2569,15 @@
       <c r="I56" s="17"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="35">
-        <f t="shared" si="1"/>
+      <c r="A57" s="22">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
@@ -2515,15 +2587,15 @@
       <c r="I57" s="17"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="35">
-        <f t="shared" si="1"/>
+      <c r="A58" s="22">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>45</v>
+        <v>147</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
@@ -2533,12 +2605,16 @@
       <c r="I58" s="17"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="35">
-        <f t="shared" si="1"/>
+      <c r="A59" s="22">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="27"/>
+      <c r="B59" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>150</v>
+      </c>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
       <c r="F59" s="25"/>
@@ -2547,15 +2623,15 @@
       <c r="I59" s="17"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="35">
-        <f t="shared" si="1"/>
+      <c r="A60" s="22">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>50</v>
+        <v>152</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
@@ -2565,16 +2641,12 @@
       <c r="I60" s="17"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="35">
-        <f t="shared" si="1"/>
+      <c r="A61" s="22">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>42</v>
-      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
@@ -2583,15 +2655,15 @@
       <c r="I61" s="17"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="35">
-        <f t="shared" si="1"/>
+      <c r="A62" s="22">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
@@ -2601,15 +2673,15 @@
       <c r="I62" s="17"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="35">
-        <f t="shared" si="1"/>
+      <c r="A63" s="22">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
@@ -2619,12 +2691,16 @@
       <c r="I63" s="17"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="35">
-        <f t="shared" si="1"/>
+      <c r="A64" s="22">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="27"/>
+      <c r="B64" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
@@ -2633,16 +2709,12 @@
       <c r="I64" s="17"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="35">
-        <f t="shared" si="1"/>
+      <c r="A65" s="22">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>86</v>
-      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
@@ -2651,15 +2723,15 @@
       <c r="I65" s="17"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="35">
-        <f t="shared" si="1"/>
+      <c r="A66" s="22">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
@@ -2669,15 +2741,15 @@
       <c r="I66" s="17"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="35">
-        <f t="shared" si="1"/>
+      <c r="A67" s="22">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
@@ -2687,15 +2759,15 @@
       <c r="I67" s="17"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="35">
-        <f t="shared" si="1"/>
+      <c r="A68" s="22">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>87</v>
+        <v>40</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
@@ -2705,8 +2777,8 @@
       <c r="I68" s="17"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="35">
-        <f t="shared" si="1"/>
+      <c r="A69" s="22">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B69" s="23"/>
@@ -2719,15 +2791,15 @@
       <c r="I69" s="17"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="35">
-        <f t="shared" si="1"/>
+      <c r="A70" s="22">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
@@ -2737,268 +2809,440 @@
       <c r="I70" s="17"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="35">
-        <f t="shared" si="1"/>
+      <c r="A71" s="22">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="32"/>
+      <c r="B71" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="17"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="35">
-        <f t="shared" si="1"/>
+      <c r="A72" s="22">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="17"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="22">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="17"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="22">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="17"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="22">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="17"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="22">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="22">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="22">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="B78" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="17"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="22">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="35">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="B79" s="23"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="17"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="22">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="35">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="B80" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="17"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="22">
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="B81" s="28"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="32"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="22">
+        <f t="shared" ref="A82:A103" si="1">A81+1</f>
         <v>68</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="35">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="35">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="35">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="35">
-        <f t="shared" si="1"/>
+      <c r="B82" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="35">
-        <f t="shared" si="1"/>
+      <c r="C82" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="35">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="35">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="35">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="35">
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="22">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="22">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="22">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="35">
+      <c r="B85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="22">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="22">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="22">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="22">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="22">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="22">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="35">
+      <c r="B91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="22">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="22">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="22">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="22">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="22">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="22">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="22">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="22">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="22">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="22">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="22">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="22">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3010,7 +3254,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D89:D90 D92:D93" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D99:D100 D102:D103" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorTsResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorTsResourceBundle.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-narumi\Documents\project\Cacco\git\blancoRestGeneratorTs\meta\program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DA0FA8-252F-C945-A384-4E5D25D853B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1120" windowWidth="25520" windowHeight="12280" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="1125" windowWidth="25515" windowHeight="12285" tabRatio="640"/>
   </bookViews>
   <sheets>
     <sheet name="ja" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="165">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -840,12 +839,72 @@
     <t>XML2SOURCE_FILE.ERR009</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>XML2SOURCE_FILE.TELEGRAM.GENERATOR.DESCRIPTION</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.TELEGRAM.GENERATOR.RETURN.DESCRIPTION</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>電文インスタンスを生成するメソッドです</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生成された電文インスタンスです</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.TELEGRAM.GENERATOR.FACTORY.DESCRIPTION</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.TELEGRAM.GENERATOR.FACTORY.ARG.METHOD.DESCRIPTION</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生成対象のメソッドです</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.ERROR.MSG.06</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>[ {0} ]というメソッドはありません。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.TELEGRAM.GENERATOR.FACTORY.RETURN.DESCRIPTION</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>電文インスタンスのファクトリメソッドです</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ファクトリで生成された電文インスタンスです</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1701,29 +1760,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="28" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1731,17 +1790,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1749,7 +1808,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1760,7 +1819,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1773,7 +1832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1784,7 +1843,7 @@
       <c r="D8" s="11"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1797,7 +1856,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1808,7 +1867,7 @@
       <c r="D10" s="14"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1816,7 +1875,7 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1829,7 +1888,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1">
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42" t="s">
         <v>14</v>
       </c>
@@ -1846,7 +1905,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
@@ -1857,7 +1916,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>1</v>
       </c>
@@ -1870,7 +1929,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <f>A15+1</f>
         <v>2</v>
@@ -1886,7 +1945,7 @@
       <c r="H16" s="26"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <f t="shared" ref="A17:A81" si="0">A16+1</f>
         <v>3</v>
@@ -1902,7 +1961,7 @@
       <c r="H17" s="26"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1918,7 +1977,7 @@
       <c r="H18" s="26"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1932,7 +1991,7 @@
       <c r="H19" s="26"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1948,7 +2007,7 @@
       <c r="H20" s="26"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1966,7 +2025,7 @@
       <c r="H21" s="26"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1980,7 +2039,7 @@
       <c r="H22" s="26"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1996,7 +2055,7 @@
       <c r="H23" s="26"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2012,7 +2071,7 @@
       <c r="H24" s="26"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2028,7 +2087,7 @@
       <c r="H25" s="26"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2042,7 +2101,7 @@
       <c r="H26" s="26"/>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2060,7 +2119,7 @@
       <c r="H27" s="26"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2078,7 +2137,7 @@
       <c r="H28" s="26"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2096,7 +2155,7 @@
       <c r="H29" s="26"/>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2114,7 +2173,7 @@
       <c r="H30" s="26"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="22">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2132,7 +2191,7 @@
       <c r="H31" s="26"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="22">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2150,7 +2209,7 @@
       <c r="H32" s="26"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2168,7 +2227,7 @@
       <c r="H33" s="26"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2186,7 +2245,7 @@
       <c r="H34" s="26"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2204,7 +2263,7 @@
       <c r="H35" s="26"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="22">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2222,7 +2281,7 @@
       <c r="H36" s="26"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2240,7 +2299,7 @@
       <c r="H37" s="26"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="22">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2258,7 +2317,7 @@
       <c r="H38" s="26"/>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2276,7 +2335,7 @@
       <c r="H39" s="26"/>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="22">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2294,7 +2353,7 @@
       <c r="H40" s="26"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="22">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2312,7 +2371,7 @@
       <c r="H41" s="26"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" s="36" customFormat="1">
+    <row r="42" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="22">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2329,7 +2388,7 @@
       <c r="G42" s="41"/>
       <c r="H42" s="26"/>
     </row>
-    <row r="43" spans="1:9" s="36" customFormat="1">
+    <row r="43" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2346,7 +2405,7 @@
       <c r="G43" s="41"/>
       <c r="H43" s="26"/>
     </row>
-    <row r="44" spans="1:9" s="36" customFormat="1">
+    <row r="44" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2363,7 +2422,7 @@
       <c r="G44" s="41"/>
       <c r="H44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="36" customFormat="1">
+    <row r="45" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="22">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2380,7 +2439,7 @@
       <c r="G45" s="41"/>
       <c r="H45" s="26"/>
     </row>
-    <row r="46" spans="1:9" s="36" customFormat="1">
+    <row r="46" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="22">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2397,7 +2456,7 @@
       <c r="G46" s="41"/>
       <c r="H46" s="26"/>
     </row>
-    <row r="47" spans="1:9" s="36" customFormat="1">
+    <row r="47" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="22">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2414,7 +2473,7 @@
       <c r="G47" s="41"/>
       <c r="H47" s="26"/>
     </row>
-    <row r="48" spans="1:9" s="36" customFormat="1">
+    <row r="48" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="22">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2431,7 +2490,7 @@
       <c r="G48" s="41"/>
       <c r="H48" s="26"/>
     </row>
-    <row r="49" spans="1:9" s="36" customFormat="1">
+    <row r="49" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="22">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2448,7 +2507,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="26"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="22">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2462,7 +2521,7 @@
       <c r="H50" s="26"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="22">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2478,7 +2537,7 @@
       <c r="H51" s="26"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="22">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2496,7 +2555,7 @@
       <c r="H52" s="26"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="22">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2514,7 +2573,7 @@
       <c r="H53" s="26"/>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="22">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2532,7 +2591,7 @@
       <c r="H54" s="26"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="22">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2550,7 +2609,7 @@
       <c r="H55" s="26"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="22">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2568,7 +2627,7 @@
       <c r="H56" s="26"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="22">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2586,7 +2645,7 @@
       <c r="H57" s="26"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="22">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2604,7 +2663,7 @@
       <c r="H58" s="26"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="22">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2622,7 +2681,7 @@
       <c r="H59" s="26"/>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="22">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2640,7 +2699,7 @@
       <c r="H60" s="26"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="22">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2654,7 +2713,7 @@
       <c r="H61" s="26"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="22">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2672,7 +2731,7 @@
       <c r="H62" s="26"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="22">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2690,7 +2749,7 @@
       <c r="H63" s="26"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="22">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2708,7 +2767,7 @@
       <c r="H64" s="26"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="22">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2722,7 +2781,7 @@
       <c r="H65" s="26"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="22">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2740,7 +2799,7 @@
       <c r="H66" s="26"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="22">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2758,7 +2817,7 @@
       <c r="H67" s="26"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="22">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2776,7 +2835,7 @@
       <c r="H68" s="26"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="22">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2790,7 +2849,7 @@
       <c r="H69" s="26"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="22">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2808,7 +2867,7 @@
       <c r="H70" s="26"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="22">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2826,7 +2885,7 @@
       <c r="H71" s="26"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="22">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2844,7 +2903,7 @@
       <c r="H72" s="26"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="22">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2862,7 +2921,7 @@
       <c r="H73" s="26"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="22">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2876,7 +2935,7 @@
       <c r="H74" s="26"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="22">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2894,7 +2953,7 @@
       <c r="H75" s="26"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="22">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2912,7 +2971,7 @@
       <c r="H76" s="26"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="22">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2930,7 +2989,7 @@
       <c r="H77" s="26"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="22">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2948,7 +3007,7 @@
       <c r="H78" s="26"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="22">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2962,7 +3021,7 @@
       <c r="H79" s="26"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="22">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2980,7 +3039,7 @@
       <c r="H80" s="26"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="22">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -2994,9 +3053,9 @@
       <c r="H81" s="31"/>
       <c r="I81" s="32"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="22">
-        <f t="shared" ref="A82:A103" si="1">A81+1</f>
+        <f t="shared" ref="A82:A109" si="1">A81+1</f>
         <v>68</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3006,7 +3065,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="22">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3018,7 +3077,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="22">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3030,219 +3089,291 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="22">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="22">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="22">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="22">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="22">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="22">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="22">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="22">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="22">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="22">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="22">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="B95" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="22">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="22">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="22">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="22">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="22">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="22">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="B101" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="22">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="22">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" s="22">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" s="22">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" s="22">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" s="22">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" s="22">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" s="22">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3254,13 +3385,13 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D99:D100 D102:D103" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D104:D106 D108:D109">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59027777777777779" right="0.59027777777777779" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555562" footer="0.11805555555555557"/>
-  <pageSetup paperSize="9" scale="81" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="81" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D &amp;T</oddFooter>
   </headerFooter>

--- a/meta/program/BlancoRestGeneratorTsResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorTsResourceBundle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-narumi\Documents\project\Cacco\git\blancoRestGeneratorTs\meta\program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ED33AA-A3BA-4241-915C-02D71F59D3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1125" windowWidth="25515" windowHeight="12285" tabRatio="640"/>
+    <workbookView xWindow="20740" yWindow="9080" windowWidth="25520" windowHeight="12280" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ja" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,6 +33,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="173">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -899,12 +903,62 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>BLANCOREST.TELEGRAM_STYLE.ERROR</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BlancoRestGeneratorTs では telegramStyle は今の所 blanco または plain のみをサポートしています。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.TELEGRAM_STYLE_PLAIN.STATUS_CODE_RESERVED</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エラー電文では statusCode プロパティは予約されています。</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ヨヤク </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.TELEGRAM_STYLE_PLAIN.STATUS_CODE_REQUIRED</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エラー電文では statusCode は必須です。</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.TELEGRAM_STYLE_PLAIN.STATUS_CODE.LANGDOC</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エラー電文を返す際のHttpStatus Codeです。</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">カエス </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">サイノ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1281,25 +1335,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1318,17 +1371,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1336,7 +1388,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1351,7 +1403,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1760,29 +1812,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="28" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1790,17 +1842,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1808,7 +1860,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1819,7 +1871,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1832,7 +1884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1843,7 +1895,7 @@
       <c r="D8" s="11"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1856,7 +1908,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1867,1195 +1919,1194 @@
       <c r="D10" s="14"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="42" t="s">
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="21">
         <v>1</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="21">
         <f>A15+1</f>
         <v>2</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="21">
         <f t="shared" ref="A17:A81" si="0">A16+1</f>
         <v>3</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="22">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="22">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="22">
+      <c r="B19" s="22"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="22">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="22">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="22">
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="22">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="22">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="22">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="22">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="22">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="22">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="22">
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="22">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="17"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="22">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="17"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="22">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="17"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="22">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="22">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="17"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="22">
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="22">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="22">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="21">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="22">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="22">
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="22">
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="21">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="17"/>
-    </row>
-    <row r="42" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="22">
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:9" s="34" customFormat="1">
+      <c r="A42" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="26"/>
-    </row>
-    <row r="43" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="22">
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:9" s="34" customFormat="1">
+      <c r="A43" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="26"/>
-    </row>
-    <row r="44" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="22">
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:9" s="34" customFormat="1">
+      <c r="A44" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="22">
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" spans="1:9" s="34" customFormat="1">
+      <c r="A45" s="21">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="26"/>
-    </row>
-    <row r="46" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="22">
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="25"/>
+    </row>
+    <row r="46" spans="1:9" s="34" customFormat="1">
+      <c r="A46" s="21">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="26"/>
-    </row>
-    <row r="47" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="22">
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="25"/>
+    </row>
+    <row r="47" spans="1:9" s="34" customFormat="1">
+      <c r="A47" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="26"/>
-    </row>
-    <row r="48" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="22">
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="25"/>
+    </row>
+    <row r="48" spans="1:9" s="34" customFormat="1">
+      <c r="A48" s="21">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="26"/>
-    </row>
-    <row r="49" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="22">
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" spans="1:9" s="34" customFormat="1">
+      <c r="A49" s="21">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="26"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="22">
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="21">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="17"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="22">
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="21">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24" t="s">
+      <c r="B51" s="22"/>
+      <c r="C51" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="17"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="22">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="17"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="22">
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="17"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="22">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="16"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="17"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="22">
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="16"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="17"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="22">
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="16"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="17"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="22">
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="16"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="21">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="17"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="22">
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="16"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="21">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="17"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="22">
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="16"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="21">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="17"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="22">
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="16"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="21">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="17"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="22">
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="16"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="21">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="17"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="22">
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="16"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="21">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="17"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="22">
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="21">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="17"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="22">
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="16"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="21">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="17"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="22">
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="16"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="21">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="17"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="22">
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="16"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="21">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="17"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="22">
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="16"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="21">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="17"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="22">
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="21">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="17"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="22">
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="16"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="21">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="17"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="22">
+      <c r="B69" s="22"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="16"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="21">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="17"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="22">
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="16"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="21">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="17"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="22">
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="16"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="21">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="17"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="22">
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="16"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="21">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="17"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="22">
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="16"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="17"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="22">
+      <c r="B74" s="22"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="16"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="21">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="17"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="22">
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="16"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="21">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="17"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="22">
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="16"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="21">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="17"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="22">
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="16"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="21">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="17"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="22">
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="16"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="21">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="17"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="22">
+      <c r="B79" s="22"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="16"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="21">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="17"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="22">
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="16"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="21">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B81" s="28"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="32"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="22">
-        <f t="shared" ref="A82:A109" si="1">A81+1</f>
+      <c r="B81" s="27"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="30"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="21">
+        <f t="shared" ref="A82:A114" si="1">A81+1</f>
         <v>68</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3065,8 +3116,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="22">
+    <row r="83" spans="1:8">
+      <c r="A83" s="21">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -3077,8 +3128,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="22">
+    <row r="84" spans="1:8">
+      <c r="A84" s="21">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -3089,8 +3140,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="22">
+    <row r="85" spans="1:8">
+      <c r="A85" s="21">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
@@ -3101,8 +3152,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="22">
+    <row r="86" spans="1:8">
+      <c r="A86" s="21">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
@@ -3113,8 +3164,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="22">
+    <row r="87" spans="1:8">
+      <c r="A87" s="21">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -3125,8 +3176,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="22">
+    <row r="88" spans="1:8">
+      <c r="A88" s="21">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
@@ -3137,8 +3188,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="22">
+    <row r="89" spans="1:8">
+      <c r="A89" s="21">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -3149,8 +3200,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="22">
+    <row r="90" spans="1:8">
+      <c r="A90" s="21">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
@@ -3161,8 +3212,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="22">
+    <row r="91" spans="1:8">
+      <c r="A91" s="21">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
@@ -3173,8 +3224,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="22">
+    <row r="92" spans="1:8">
+      <c r="A92" s="21">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
@@ -3185,8 +3236,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="22">
+    <row r="93" spans="1:8">
+      <c r="A93" s="21">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
@@ -3197,8 +3248,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="22">
+    <row r="94" spans="1:8">
+      <c r="A94" s="21">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
@@ -3209,8 +3260,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="22">
+    <row r="95" spans="1:8">
+      <c r="A95" s="21">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
@@ -3221,8 +3272,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="22">
+    <row r="96" spans="1:8">
+      <c r="A96" s="21">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
@@ -3233,8 +3284,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="22">
+    <row r="97" spans="1:3">
+      <c r="A97" s="21">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
@@ -3245,8 +3296,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" s="22">
+    <row r="98" spans="1:3">
+      <c r="A98" s="21">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
@@ -3257,8 +3308,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="22">
+    <row r="99" spans="1:3">
+      <c r="A99" s="21">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -3269,14 +3320,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100" s="22">
+    <row r="100" spans="1:3">
+      <c r="A100" s="21">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101" s="22">
+    <row r="101" spans="1:3">
+      <c r="A101" s="21">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
@@ -3287,8 +3338,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="22">
+    <row r="102" spans="1:3">
+      <c r="A102" s="21">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -3299,8 +3350,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="22">
+    <row r="103" spans="1:3">
+      <c r="A103" s="21">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
@@ -3311,8 +3362,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" s="22">
+    <row r="104" spans="1:3">
+      <c r="A104" s="21">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -3323,8 +3374,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" s="22">
+    <row r="105" spans="1:3">
+      <c r="A105" s="21">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
@@ -3335,8 +3386,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" s="22">
+    <row r="106" spans="1:3">
+      <c r="A106" s="21">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
@@ -3347,14 +3398,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="22">
+    <row r="107" spans="1:3">
+      <c r="A107" s="21">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="22">
+    <row r="108" spans="1:3">
+      <c r="A108" s="21">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
@@ -3365,8 +3416,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A109" s="22">
+    <row r="109" spans="1:3">
+      <c r="A109" s="21">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
@@ -3375,6 +3426,60 @@
       </c>
       <c r="C109" s="1" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="21">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="21">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="21">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="21">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3385,7 +3490,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D104:D106 D108:D109">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D104:D106 D108:D109" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorTsResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorTsResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ED33AA-A3BA-4241-915C-02D71F59D3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6F9C93-0511-064C-A9C7-5F87554802E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20740" yWindow="9080" windowWidth="25520" windowHeight="12280" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="175">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -950,6 +950,32 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t xml:space="preserve">サイノ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.ERROR.MSG.07</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クエリ種別Pathは必須です。[{0}] のパラメータ  [{1}] の設定を確認してください。</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">イチラｎ </t>
+    </rPh>
+    <rPh sb="19" eb="29">
+      <t xml:space="preserve">セッテイヲ </t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t xml:space="preserve">カクニｎ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1816,10 +1842,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3106,7 +3132,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="21">
-        <f t="shared" ref="A82:A114" si="1">A81+1</f>
+        <f t="shared" ref="A82:A115" si="1">A81+1</f>
         <v>68</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3403,82 +3429,94 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
+      <c r="B107" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="21">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>131</v>
+        <f>A106+1</f>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="21">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="21">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="21">
         <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="21">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="21">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="21">
         <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="21">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3490,7 +3528,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D104:D106 D108:D109" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D109:D110 D104:D107" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
